--- a/data/trans_orig/Q15_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Estudios-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>0.03757045852544105</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05149934823552174</v>
+        <v>0.05149934823552173</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0127017738280709</v>
+        <v>0.01222092567853077</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01516077729436643</v>
+        <v>0.01635954406504328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01928932095872919</v>
+        <v>0.01971299036017709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01775128813976718</v>
+        <v>0.0177167896915573</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02296962623104419</v>
+        <v>0.02326314015534024</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02642720361071742</v>
+        <v>0.02619616593243327</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03091507437152538</v>
+        <v>0.0309339701237449</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05082674524609607</v>
+        <v>0.05131654080611634</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02090008610887714</v>
+        <v>0.02095550574750077</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02477541574059569</v>
+        <v>0.02446766792067397</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02910845467876247</v>
+        <v>0.02871805929252886</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0405349970847098</v>
+        <v>0.04117371580657719</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03076259485980905</v>
+        <v>0.03122904778633766</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0379404390717056</v>
+        <v>0.04049491462152732</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04518284671766579</v>
+        <v>0.04442558449195869</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06021082861633915</v>
+        <v>0.06099143255059855</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04350005290002135</v>
+        <v>0.04251151397435899</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04894349997288311</v>
+        <v>0.05021874911815437</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05917784336140793</v>
+        <v>0.06090850750391261</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08623422101422624</v>
+        <v>0.08795277204100645</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03427195568575413</v>
+        <v>0.03406242571461742</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04066941341124293</v>
+        <v>0.04169369980463972</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04804382830785674</v>
+        <v>0.04803565364418405</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06748543395701069</v>
+        <v>0.06679412456483735</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.01639900105789189</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.02207935064422277</v>
+        <v>0.02207935064422276</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03319984104435324</v>
@@ -829,7 +829,7 @@
         <v>0.0218545984977665</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02476090385320218</v>
+        <v>0.02476090385320217</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03544282599178911</v>
+        <v>0.03423747702845577</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02416432052364443</v>
+        <v>0.02438556367316028</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0202885311440162</v>
+        <v>0.02014505392336544</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0196780104832434</v>
+        <v>0.02015806212552857</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01547403435345446</v>
+        <v>0.01508770482958947</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01603545141586119</v>
+        <v>0.01628216172589171</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01100112317702471</v>
+        <v>0.01096876835561376</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01639724683514377</v>
+        <v>0.0159131800788371</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02759471663554589</v>
+        <v>0.02758405566684524</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02238347056571156</v>
+        <v>0.02262585850066363</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01718158527120381</v>
+        <v>0.01706106075326016</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01949101065989676</v>
+        <v>0.01980340291277123</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05520710500973654</v>
+        <v>0.05426768279571233</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04138454145279166</v>
+        <v>0.04271704127216948</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03524578299832664</v>
+        <v>0.03626899050762231</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04263948862269809</v>
+        <v>0.04346126627431688</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02981083985312611</v>
+        <v>0.03018111857669467</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03070284150597496</v>
+        <v>0.03065375578100759</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02368412219403812</v>
+        <v>0.0234851039404879</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03036178612111503</v>
+        <v>0.03029157576725996</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04028636565307227</v>
+        <v>0.0398784337447325</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03392138715322752</v>
+        <v>0.0341447186293565</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02749849904925984</v>
+        <v>0.02744924823579336</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03280467206308407</v>
+        <v>0.03301326637512353</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0198255639700883</v>
+        <v>0.01885132241779243</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0146785943967939</v>
+        <v>0.01406539150505991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01159907794664635</v>
+        <v>0.01187083061541488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01002334557673842</v>
+        <v>0.01029162273979427</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01223028189489105</v>
+        <v>0.01310231481280212</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01558286933760234</v>
+        <v>0.01524787433292766</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0143205646811105</v>
+        <v>0.01426154111098501</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0114951878451626</v>
+        <v>0.01131643158359922</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02041020811170928</v>
+        <v>0.01988469479874785</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01881788403076032</v>
+        <v>0.01820939432236775</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01602962845885036</v>
+        <v>0.01605861791396744</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01331738808649206</v>
+        <v>0.01372616656950733</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05431266040658386</v>
+        <v>0.05463332667693422</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04507680433814013</v>
+        <v>0.04739231770120287</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03955076187959378</v>
+        <v>0.03789220941253003</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08922834735681066</v>
+        <v>0.1085890857994016</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04428948107978645</v>
+        <v>0.04408773876620476</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05560618021672141</v>
+        <v>0.0558506989384928</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04226042144322572</v>
+        <v>0.04348170298597165</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02784210681965705</v>
+        <v>0.02775549426749777</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04349830424586063</v>
+        <v>0.04276504271542567</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04409614948221358</v>
+        <v>0.04422504139392044</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03553211754663426</v>
+        <v>0.0366881312048006</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05598847061519926</v>
+        <v>0.05809109258798485</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.02683951766706233</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02830193469842594</v>
+        <v>0.02830193469842595</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02625126334646455</v>
@@ -1101,7 +1101,7 @@
         <v>0.02612475351302092</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02972666516651408</v>
+        <v>0.02972666516651409</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02898512042542526</v>
+        <v>0.02833757401958699</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02396486549532881</v>
+        <v>0.02361894060698356</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02170952823293922</v>
+        <v>0.02108763663081319</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0206489860645257</v>
+        <v>0.02101622550857209</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02128344198704389</v>
+        <v>0.02125226576188163</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02346712292734002</v>
+        <v>0.02313528699862915</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0200106840410027</v>
+        <v>0.01983007247735268</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02606306977293614</v>
+        <v>0.02571896495964529</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02625722132472932</v>
+        <v>0.02663167260052028</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02527314521391476</v>
+        <v>0.02506574992675434</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02231321776721154</v>
+        <v>0.02224008259727462</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02525658345569406</v>
+        <v>0.024851846215917</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04196238575823196</v>
+        <v>0.04256357165521018</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03667516387669757</v>
+        <v>0.03611201115389542</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0334526430740014</v>
+        <v>0.03326403575670466</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04025269043942666</v>
+        <v>0.04326180113478009</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03313768095169301</v>
+        <v>0.03283375383606094</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0358785258588578</v>
+        <v>0.03557491351858522</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03163267404162497</v>
+        <v>0.03192064262914307</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03767166160731885</v>
+        <v>0.03758098884300964</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03460871515325969</v>
+        <v>0.03484482005015143</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0336212095651742</v>
+        <v>0.03387376828726188</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03050240319564833</v>
+        <v>0.03033507216457537</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03632520021179829</v>
+        <v>0.03727871492432164</v>
       </c>
     </row>
     <row r="16">
